--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Allied Digital Services Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Allied Digital Services Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Yearly Results of Allied Digital Services(in Rs. Cr.)</t>
   </si>
@@ -131,6 +131,51 @@
   </si>
   <si>
     <t>Mar '24</t>
+  </si>
+  <si>
+    <t>471.45</t>
+  </si>
+  <si>
+    <t>528.24</t>
+  </si>
+  <si>
+    <t>406.00</t>
+  </si>
+  <si>
+    <t>235.95</t>
+  </si>
+  <si>
+    <t>148.87</t>
+  </si>
+  <si>
+    <t>125.50</t>
+  </si>
+  <si>
+    <t>103.41</t>
+  </si>
+  <si>
+    <t>78.10</t>
+  </si>
+  <si>
+    <t>74.23</t>
+  </si>
+  <si>
+    <t>75.23</t>
+  </si>
+  <si>
+    <t>94.19</t>
+  </si>
+  <si>
+    <t>96.19</t>
+  </si>
+  <si>
+    <t>122.58</t>
+  </si>
+  <si>
+    <t>210.29</t>
+  </si>
+  <si>
+    <t>286.65</t>
   </si>
 </sst>
 </file>
@@ -572,14 +617,14 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2">
-        <v>471.45</v>
+      <c r="B2" t="s">
+        <v>39</v>
       </c>
       <c r="C2">
         <v>471.45</v>
       </c>
       <c r="D2">
-        <v>77.37769230769233</v>
+        <v>77.38</v>
       </c>
       <c r="E2">
         <v>-1.6</v>
@@ -646,14 +691,14 @@
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3">
-        <v>528.24</v>
+      <c r="B3" t="s">
+        <v>40</v>
       </c>
       <c r="C3">
         <v>528.24</v>
       </c>
       <c r="D3">
-        <v>77.37769230769233</v>
+        <v>77.38</v>
       </c>
       <c r="E3">
         <v>3.11</v>
@@ -720,8 +765,8 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4">
-        <v>406</v>
+      <c r="B4" t="s">
+        <v>41</v>
       </c>
       <c r="C4">
         <v>414.44</v>
@@ -794,8 +839,8 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5">
-        <v>235.95</v>
+      <c r="B5" t="s">
+        <v>42</v>
       </c>
       <c r="C5">
         <v>238.98</v>
@@ -849,7 +894,7 @@
         <v>654.11</v>
       </c>
       <c r="T5">
-        <v>16.875</v>
+        <v>16.88</v>
       </c>
       <c r="U5">
         <v>-2.2</v>
@@ -868,8 +913,8 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6">
-        <v>148.87</v>
+      <c r="B6" t="s">
+        <v>43</v>
       </c>
       <c r="C6">
         <v>156.6</v>
@@ -923,7 +968,7 @@
         <v>666.9299999999999</v>
       </c>
       <c r="T6">
-        <v>16.875</v>
+        <v>16.88</v>
       </c>
       <c r="U6">
         <v>2.77</v>
@@ -942,8 +987,8 @@
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7">
-        <v>125.5</v>
+      <c r="B7" t="s">
+        <v>44</v>
       </c>
       <c r="C7">
         <v>130</v>
@@ -997,7 +1042,7 @@
         <v>650</v>
       </c>
       <c r="T7">
-        <v>16.875</v>
+        <v>16.88</v>
       </c>
       <c r="U7">
         <v>0.08</v>
@@ -1016,8 +1061,8 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8">
-        <v>103.41</v>
+      <c r="B8" t="s">
+        <v>45</v>
       </c>
       <c r="C8">
         <v>101.95</v>
@@ -1071,7 +1116,7 @@
         <v>426.69</v>
       </c>
       <c r="T8">
-        <v>16.875</v>
+        <v>16.88</v>
       </c>
       <c r="U8">
         <v>0.45</v>
@@ -1090,8 +1135,8 @@
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B9">
-        <v>78.09999999999999</v>
+      <c r="B9" t="s">
+        <v>46</v>
       </c>
       <c r="C9">
         <v>78.09999999999999</v>
@@ -1145,7 +1190,7 @@
         <v>424.57</v>
       </c>
       <c r="T9">
-        <v>16.875</v>
+        <v>16.88</v>
       </c>
       <c r="U9">
         <v>0.35</v>
@@ -1164,8 +1209,8 @@
       <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="B10">
-        <v>74.23</v>
+      <c r="B10" t="s">
+        <v>47</v>
       </c>
       <c r="C10">
         <v>74.23</v>
@@ -1219,7 +1264,7 @@
         <v>428.68</v>
       </c>
       <c r="T10">
-        <v>16.875</v>
+        <v>16.88</v>
       </c>
       <c r="U10">
         <v>0.99</v>
@@ -1238,8 +1283,8 @@
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11">
-        <v>75.23</v>
+      <c r="B11" t="s">
+        <v>48</v>
       </c>
       <c r="C11">
         <v>75.23</v>
@@ -1293,7 +1338,7 @@
         <v>437.97</v>
       </c>
       <c r="T11">
-        <v>16.875</v>
+        <v>16.88</v>
       </c>
       <c r="U11">
         <v>1.92</v>
@@ -1312,8 +1357,8 @@
       <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12">
-        <v>94.19</v>
+      <c r="B12" t="s">
+        <v>49</v>
       </c>
       <c r="C12">
         <v>94.19</v>
@@ -1386,8 +1431,8 @@
       <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13">
-        <v>96.19</v>
+      <c r="B13" t="s">
+        <v>50</v>
       </c>
       <c r="C13">
         <v>96.19</v>
@@ -1460,8 +1505,8 @@
       <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14">
-        <v>122.58</v>
+      <c r="B14" t="s">
+        <v>51</v>
       </c>
       <c r="C14">
         <v>122.58</v>
@@ -1534,8 +1579,8 @@
       <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B15">
-        <v>210.29</v>
+      <c r="B15" t="s">
+        <v>52</v>
       </c>
       <c r="C15">
         <v>210.29</v>
@@ -1608,8 +1653,8 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16">
-        <v>286.65</v>
+      <c r="B16" t="s">
+        <v>53</v>
       </c>
       <c r="C16">
         <v>286.65</v>
